--- a/laravel-backend/storage/templates/denr.xlsx
+++ b/laravel-backend/storage/templates/denr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\denr_inv\laravel-backend\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\denr_inv\laravel-backend\storage\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F52E95-4D51-4283-A019-487EDFF1A9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83AE1D1-67B5-4C00-90B0-13E369BF9088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E54F799D-C3C5-4495-98D5-76E9EC028213}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E54F799D-C3C5-4495-98D5-76E9EC028213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>PENRO</t>
   </si>
@@ -65,12 +65,6 @@
     <t>ACCOUNTABLE PERSON</t>
   </si>
   <si>
-    <t>ACCOUNTABLE PERSON as of 2024</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
     <t>OFFICE / DIVISION</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
   </si>
   <si>
     <t>ACTUAL USER</t>
-  </si>
-  <si>
-    <t>ACTUAL USER as of 2024</t>
   </si>
   <si>
     <t>NATURE OF WORK</t>
@@ -259,35 +250,35 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -604,215 +595,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DD475-5E14-4337-9226-6435395F9B0F}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="4" customWidth="1"/>
-    <col min="11" max="22" width="13.42578125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="32.85546875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="32.7109375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="27.42578125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="26.85546875" style="4" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="4"/>
-    <col min="28" max="28" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="9.140625" style="4"/>
-    <col min="33" max="33" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
+    <col min="11" max="22" width="13.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="32.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="32.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="1" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7" t="s">
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="T2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
+      <c r="V2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
+  <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:R1"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
